--- a/wallets-Sample.xlsx
+++ b/wallets-Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yutea\Desktop\NFT\嚕毛\code\python\Balance-checker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4944E5F-52A2-4D96-B09E-105DA3CD843D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC1634B-F602-4010-9487-F8B789AC1EC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17060" xr2:uid="{73C595F5-B33B-422E-A4D0-F2DBFBC16F68}"/>
   </bookViews>
@@ -27,18 +27,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>錢包地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#自行命名(必要)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0xd8dA6BF26964aF9D7eEd9e03E53415D37aA96045</t>
   </si>
   <si>
     <t>vitalik.eth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>錢包名稱(必填)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>錢包地址(必填)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -84,12 +84,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -106,7 +112,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -119,6 +125,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -436,7 +445,7 @@
   <dimension ref="A1:U528"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -447,11 +456,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
+      <c r="A1" s="6" t="s">
+        <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
+      <c r="B1" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -475,10 +484,10 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
